--- a/Networks/Parte2/Excel/Parte2-Network9.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network9.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.684609033949018</v>
+        <v>-0.4053896379782324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1264848188155452</v>
+        <v>-0.07217897947900613</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.527227896933756</v>
+        <v>0.4936523938066099</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3184407040137882</v>
+        <v>-1.06621943263362</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08697981313853551</v>
+        <v>0.7027033615272439</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9636066452039512</v>
+        <v>-0.4626479010554579</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.127218587142941</v>
+        <v>-0.8420369112401874</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2049211951755439</v>
+        <v>-0.5190313505020749</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.222106327102852</v>
+        <v>0.5716933026895223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5101941561359248</v>
+        <v>0.9325260376499798</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.348992865502082</v>
+        <v>-1.555400529821802</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1888106145156447</v>
+        <v>0.009879523655046487</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network9.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network9.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4053896379782324</v>
+        <v>-0.5578981002433783</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07217897947900613</v>
+        <v>-0.7723424526762497</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4936523938066099</v>
+        <v>0.3554350327846399</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.06621943263362</v>
+        <v>0.2212628635966589</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7027033615272439</v>
+        <v>0.8683777379430004</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4626479010554579</v>
+        <v>0.8184912724751707</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8420369112401874</v>
+        <v>-1.377181892596393</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5190313505020749</v>
+        <v>-0.3476465013015807</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5716933026895223</v>
+        <v>0.5458976361397698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9325260376499798</v>
+        <v>0.9755672625228474</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.555400529821802</v>
+        <v>0.3839077335506901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009879523655046487</v>
+        <v>-0.3805352388642115</v>
       </c>
     </row>
   </sheetData>
